--- a/diagramme_gantt.xlsx
+++ b/diagramme_gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\BUT3\SAE_503_Datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA5A760-9B89-42DC-8D69-28B603B3D3F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307E3CD-5D0E-4E50-BF1B-449ACA0FC95D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{FEABA7B6-F5FB-4647-AD64-CC26BC59457B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FEABA7B6-F5FB-4647-AD64-CC26BC59457B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -164,6 +164,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -173,8 +175,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,32 +489,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB3DCF8-8C06-48AD-ABD2-BBE15DBAB277}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -537,16 +537,19 @@
         <v>45953</v>
       </c>
       <c r="H3" s="4">
+        <v>45964</v>
+      </c>
+      <c r="I3" s="4">
         <v>45979</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>45985</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>45999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -559,8 +562,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -573,8 +577,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -587,8 +592,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -601,8 +607,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -615,8 +622,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -629,8 +637,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -640,11 +649,12 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -656,23 +666,25 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -684,7 +696,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
